--- a/document/微信卡包测试记录.xlsx
+++ b/document/微信卡包测试记录.xlsx
@@ -807,9 +807,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4988,7 +4988,7 @@
         <v>175</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="I146" s="19"/>
     </row>
@@ -5015,7 +5015,7 @@
         <v>175</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="I147" s="19"/>
     </row>
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="I148" s="19"/>
     </row>
@@ -5086,11 +5086,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"new,fixed,reopen,closed"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E101:E149">
       <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"new,fixed,reopen,closed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
